--- a/biology/Zoologie/Échenilleur_varié/Échenilleur_varié.xlsx
+++ b/biology/Zoologie/Échenilleur_varié/Échenilleur_varié.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89chenilleur_vari%C3%A9</t>
+          <t>Échenilleur_varié</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lalage leucomela
 L'Échenilleur varié (Lalage leucomela) est une espèce de passereaux de la famille des Campephagidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89chenilleur_vari%C3%A9</t>
+          <t>Échenilleur_varié</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ils préfèrent les environnements chauds et raisonnablement humides que l'on trouve en Nouvelle-Guinée et l'archipel Bismarck, ainsi que la majeure partie de l'arrière-pays côtier tropical et subtropicale de l'Australie, de Sydney jusqu'à la pointe de la péninsule du cap York, dans la partie humide de la région de Kimberley, et dans le Top End.
 Commun à très commun dans le nord, il devient plus rare vers le sud. Son habitat typique est la forêt tropicale, les lianes, les fourrés, les forêts et bois d'eucalyptus avec une préférence particulière pour les zones frontalières entre forêts denses et ouvertes.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89chenilleur_vari%C3%A9</t>
+          <t>Échenilleur_varié</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il chemine lentement et méthodiquement à travers le feuillage, à tous les niveaux (parfois sur le sol), en couples ou en petits groupes à la recherche d'insectes et de fruits, et en faisant des appels répétés pour garder le contact.
 </t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89chenilleur_vari%C3%A9</t>
+          <t>Échenilleur_varié</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">D'après Alan P. Peterson, il en existe quinze sous-espèces :
 Lalage leucomela albidior Hartert 1924 ;
